--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa.xlsx
@@ -439,46 +439,40 @@
     <t>Wales</t>
   </si>
   <si>
-    <t>['France', 'Denmark']</t>
+    <t>['France', 'Belgium', 'Denmark']</t>
   </si>
   <si>
-    <t>['France', 'Belgium']</t>
+    <t>['Spain', 'Portugal', 'West Germany']</t>
   </si>
   <si>
-    <t>['West Germany', 'Spain']</t>
+    <t>['Spain', 'Italy', 'West Germany']</t>
   </si>
   <si>
-    <t>['Portugal', 'West Germany']</t>
+    <t>['Soviet Union', 'Ireland', 'Netherlands']</t>
   </si>
   <si>
-    <t>['Portugal', 'Spain']</t>
+    <t>['France', 'Sweden', 'England']</t>
   </si>
   <si>
-    <t>['West Germany', 'Italy']</t>
+    <t>['Denmark', 'Sweden', 'England']</t>
   </si>
   <si>
-    <t>['Ireland', 'Soviet Union']</t>
+    <t>['England', 'Sweden', 'Denmark']</t>
   </si>
   <si>
-    <t>['Netherlands', 'Soviet Union']</t>
+    <t>['France', 'Sweden', 'Denmark']</t>
   </si>
   <si>
-    <t>['France', 'Sweden']</t>
+    <t>['Germany', 'Netherlands', 'Commonwealth of Independent States']</t>
   </si>
   <si>
-    <t>['Sweden', 'England']</t>
-  </si>
-  <si>
-    <t>['Denmark', 'Sweden']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Netherlands']</t>
+    <t>['Germany', 'Netherlands', 'Scotland']</t>
   </si>
   <si>
     <t>['France', 'Bulgaria']</t>
   </si>
   <si>
-    <t>['Bulgaria', 'Spain']</t>
+    <t>['Spain', 'Bulgaria']</t>
   </si>
   <si>
     <t>['France', 'Spain']</t>
@@ -490,7 +484,7 @@
     <t>['Scotland', 'England']</t>
   </si>
   <si>
-    <t>['Portugal', 'Croatia']</t>
+    <t>['Croatia', 'Portugal']</t>
   </si>
   <si>
     <t>['Germany', 'Italy']</t>
@@ -502,25 +496,28 @@
     <t>['Belgium', 'Italy']</t>
   </si>
   <si>
-    <t>['Turkey', 'Italy']</t>
+    <t>['Italy', 'Turkey']</t>
   </si>
   <si>
-    <t>['Portugal', 'England']</t>
+    <t>['England', 'Portugal']</t>
   </si>
   <si>
     <t>['Portugal', 'Romania']</t>
   </si>
   <si>
-    <t>['Yugoslavia', 'Spain']</t>
+    <t>['Spain', 'Yugoslavia']</t>
   </si>
   <si>
-    <t>['Norway', 'Yugoslavia']</t>
+    <t>['Yugoslavia', 'Norway']</t>
   </si>
   <si>
     <t>['France', 'Netherlands']</t>
   </si>
   <si>
-    <t>['Greece', 'Spain']</t>
+    <t>['Spain', 'Greece']</t>
+  </si>
+  <si>
+    <t>['Spain', 'Portugal']</t>
   </si>
   <si>
     <t>['Portugal', 'Greece']</t>
@@ -532,13 +529,16 @@
     <t>['France', 'Croatia']</t>
   </si>
   <si>
-    <t>['Czech Republic', 'Netherlands']</t>
+    <t>['Sweden', 'Denmark']</t>
+  </si>
+  <si>
+    <t>['Netherlands', 'Czech Republic']</t>
   </si>
   <si>
     <t>['Portugal', 'Czech Republic']</t>
   </si>
   <si>
-    <t>['Portugal', 'Turkey']</t>
+    <t>['Turkey', 'Portugal']</t>
   </si>
   <si>
     <t>['Germany', 'Croatia']</t>
@@ -550,112 +550,91 @@
     <t>['Italy', 'Netherlands']</t>
   </si>
   <si>
-    <t>['Sweden', 'Spain']</t>
+    <t>['Spain', 'Sweden']</t>
   </si>
   <si>
-    <t>['Russia', 'Spain']</t>
+    <t>['Spain', 'Russia']</t>
   </si>
   <si>
     <t>['Russia', 'Czech Republic']</t>
   </si>
   <si>
-    <t>['Greece', 'Russia']</t>
+    <t>['Russia', 'Greece']</t>
   </si>
   <si>
-    <t>['Portugal', 'Germany']</t>
+    <t>['Germany', 'Portugal']</t>
   </si>
   <si>
     <t>['Germany', 'Denmark']</t>
   </si>
   <si>
-    <t>['Croatia', 'Spain']</t>
+    <t>['Spain', 'Croatia']</t>
   </si>
   <si>
-    <t>['Italy', 'Spain']</t>
+    <t>['Spain', 'Italy']</t>
   </si>
   <si>
-    <t>['France', 'Switzerland', 'Romania']</t>
+    <t>['France', 'Switzerland']</t>
   </si>
   <si>
-    <t>['France', 'Albania', 'Switzerland']</t>
+    <t>['Wales', 'England']</t>
   </si>
   <si>
-    <t>['Slovakia', 'Wales', 'England']</t>
+    <t>['Germany', 'Poland']</t>
   </si>
   <si>
-    <t>['Poland', 'Germany', 'Northern Ireland']</t>
+    <t>['Hungary', 'Iceland']</t>
   </si>
   <si>
-    <t>['Czech Republic', 'Croatia', 'Spain']</t>
+    <t>['Hungary', 'Portugal']</t>
   </si>
   <si>
-    <t>['Turkey', 'Croatia', 'Spain']</t>
+    <t>['Wales', 'Italy']</t>
   </si>
   <si>
-    <t>['Portugal', 'Iceland', 'Hungary']</t>
+    <t>['Ukraine', 'Netherlands']</t>
   </si>
   <si>
-    <t>['Belgium', 'Sweden', 'Italy']</t>
+    <t>['Austria', 'Netherlands']</t>
   </si>
   <si>
-    <t>['Belgium', 'Ireland', 'Italy']</t>
+    <t>['Belgium', 'Finland']</t>
   </si>
   <si>
-    <t>['Switzerland', 'Wales', 'Italy']</t>
+    <t>['Belgium', 'Denmark']</t>
   </si>
   <si>
-    <t>['Ukraine', 'Austria', 'Netherlands']</t>
+    <t>['England', 'Czech Republic']</t>
   </si>
   <si>
-    <t>['Belgium', 'Finland', 'Russia']</t>
+    <t>['Croatia', 'England']</t>
   </si>
   <si>
-    <t>['Belgium', 'Finland', 'Denmark']</t>
+    <t>['Sweden', 'Slovakia']</t>
   </si>
   <si>
-    <t>['Czech Republic', 'Croatia', 'England']</t>
+    <t>['France', 'Portugal']</t>
   </si>
   <si>
-    <t>['Slovakia', 'Sweden', 'Spain']</t>
+    <t>['France', 'Hungary']</t>
   </si>
   <si>
-    <t>['France', 'Portugal', 'Germany']</t>
+    <t>['Switzerland', 'Germany']</t>
   </si>
   <si>
-    <t>['France', 'Portugal', 'Hungary']</t>
+    <t>['France', 'Austria']</t>
   </si>
   <si>
-    <t>['Germany', 'Switzerland', 'Scotland']</t>
+    <t>['Denmark', 'England']</t>
   </si>
   <si>
-    <t>['Hungary', 'Germany', 'Switzerland']</t>
+    <t>['Belgium', 'Romania']</t>
   </si>
   <si>
-    <t>['Albania', 'Italy', 'Spain']</t>
+    <t>['Belgium', 'Slovakia']</t>
   </si>
   <si>
-    <t>['Croatia', 'Italy', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Croatia', 'Spain']</t>
-  </si>
-  <si>
-    <t>['France', 'Austria', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Slovenia', 'Denmark', 'England']</t>
-  </si>
-  <si>
-    <t>['Belgium', 'Slovakia', 'Romania']</t>
-  </si>
-  <si>
-    <t>['Belgium', 'Slovakia', 'Ukraine']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Czech Republic', 'Turkey']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Georgia', 'Turkey']</t>
+    <t>['Georgia', 'Portugal']</t>
   </si>
   <si>
     <t>Norway</t>
@@ -667,10 +646,22 @@
     <t>Serbia</t>
   </si>
   <si>
+    <t>['France', 'Denmark']</t>
+  </si>
+  <si>
+    <t>['France', 'Belgium']</t>
+  </si>
+  <si>
+    <t>['West Germany', 'Spain']</t>
+  </si>
+  <si>
     <t>['West Germany', 'Portugal']</t>
   </si>
   <si>
-    <t>['Spain', 'Portugal']</t>
+    <t>['West Germany', 'Italy']</t>
+  </si>
+  <si>
+    <t>['Ireland', 'Soviet Union']</t>
   </si>
   <si>
     <t>['Soviet Union', 'Ireland']</t>
@@ -685,7 +676,10 @@
     <t>['England', 'Sweden']</t>
   </si>
   <si>
-    <t>['Sweden', 'Denmark']</t>
+    <t>['Sweden', 'England']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Netherlands']</t>
   </si>
   <si>
     <t>['Netherlands', 'Germany']</t>
@@ -694,37 +688,43 @@
     <t>['Bulgaria', 'France']</t>
   </si>
   <si>
-    <t>['Spain', 'Bulgaria']</t>
-  </si>
-  <si>
     <t>['England', 'Netherlands']</t>
   </si>
   <si>
     <t>['England', 'Scotland']</t>
   </si>
   <si>
-    <t>['Croatia', 'Portugal']</t>
+    <t>['Portugal', 'Croatia']</t>
   </si>
   <si>
     <t>['Italy', 'Belgium']</t>
   </si>
   <si>
-    <t>['Italy', 'Turkey']</t>
+    <t>['Portugal', 'England']</t>
   </si>
   <si>
-    <t>['Yugoslavia', 'Norway']</t>
-  </si>
-  <si>
-    <t>['Spain', 'Yugoslavia']</t>
+    <t>['Yugoslavia', 'Spain']</t>
   </si>
   <si>
     <t>['Netherlands', 'France']</t>
   </si>
   <si>
+    <t>['Greece', 'Spain']</t>
+  </si>
+  <si>
     <t>['England', 'France']</t>
   </si>
   <si>
+    <t>['Denmark', 'Sweden']</t>
+  </si>
+  <si>
     <t>['Czech Republic', 'Germany']</t>
+  </si>
+  <si>
+    <t>['Czech Republic', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Turkey']</t>
   </si>
   <si>
     <t>['Croatia', 'Germany']</t>
@@ -733,25 +733,10 @@
     <t>['Netherlands', 'Italy']</t>
   </si>
   <si>
-    <t>['Spain', 'Sweden']</t>
-  </si>
-  <si>
-    <t>['Spain', 'Russia']</t>
-  </si>
-  <si>
-    <t>['Russia', 'Greece']</t>
-  </si>
-  <si>
     <t>['Czech Republic', 'Russia']</t>
   </si>
   <si>
-    <t>['Germany', 'Portugal']</t>
-  </si>
-  <si>
-    <t>['Spain', 'Croatia']</t>
-  </si>
-  <si>
-    <t>['Spain', 'Italy']</t>
+    <t>['France', 'Switzerland', 'Romania']</t>
   </si>
   <si>
     <t>['France', 'Switzerland', 'Albania']</t>
@@ -770,9 +755,6 @@
   </si>
   <si>
     <t>['Croatia', 'Spain', 'Turkey']</t>
-  </si>
-  <si>
-    <t>['Hungary', 'Iceland']</t>
   </si>
   <si>
     <t>['Hungary', 'Iceland', 'Portugal']</t>
@@ -796,13 +778,16 @@
     <t>['Netherlands', 'Austria', 'Ukraine']</t>
   </si>
   <si>
+    <t>['Belgium', 'Finland', 'Russia']</t>
+  </si>
+  <si>
+    <t>['Belgium', 'Finland', 'Denmark']</t>
+  </si>
+  <si>
     <t>['Belgium', 'Denmark', 'Finland']</t>
   </si>
   <si>
     <t>['Czech Republic', 'England']</t>
-  </si>
-  <si>
-    <t>['England', 'Czech Republic']</t>
   </si>
   <si>
     <t>['England', 'Czech Republic', 'Croatia']</t>
@@ -814,10 +799,19 @@
     <t>['Sweden', 'Slovakia', 'Spain']</t>
   </si>
   <si>
+    <t>['Sweden', 'Spain']</t>
+  </si>
+  <si>
+    <t>['France', 'Portugal', 'Germany']</t>
+  </si>
+  <si>
+    <t>['France', 'Portugal', 'Hungary']</t>
+  </si>
+  <si>
     <t>['Portugal', 'France', 'Hungary']</t>
   </si>
   <si>
-    <t>['France', 'Hungary']</t>
+    <t>['Germany', 'Switzerland', 'Scotland']</t>
   </si>
   <si>
     <t>['Switzerland', 'Germany', 'Scotland']</t>
@@ -838,6 +832,9 @@
     <t>['France', 'Netherlands', 'Austria']</t>
   </si>
   <si>
+    <t>['France', 'Austria', 'Netherlands']</t>
+  </si>
+  <si>
     <t>['England', 'Denmark', 'Slovenia']</t>
   </si>
   <si>
@@ -848,6 +845,9 @@
   </si>
   <si>
     <t>['Portugal', 'Turkey', 'Georgia']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Georgia', 'Turkey']</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
         <v>105</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="AK3">
         <v>1</v>
@@ -1636,7 +1636,7 @@
         <v>118</v>
       </c>
       <c r="J4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
         <v>105</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
         <v>105</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>104</v>
       </c>
       <c r="J6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
         <v>105</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K7" t="s">
         <v>105</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="AK8">
         <v>1</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="AK12">
         <v>0</v>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
         <v>107</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="AK13">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>106</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
         <v>107</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AK14">
         <v>1</v>
@@ -3098,7 +3098,7 @@
         <v>119</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
         <v>119</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="AK15">
         <v>1</v>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
         <v>107</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="AK16">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>107</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s">
         <v>107</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="AK17">
         <v>0</v>
@@ -3491,7 +3491,7 @@
         <v>107</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s">
         <v>107</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>108</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K19" t="s">
         <v>107</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>108</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K20" t="s">
         <v>107</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="AK20">
         <v>0</v>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K21" t="s">
         <v>110</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="AK21">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>136</v>
       </c>
       <c r="J22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K22" t="s">
         <v>136</v>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AK22">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>109</v>
       </c>
       <c r="J23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K23" t="s">
         <v>136</v>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AK23">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>136</v>
       </c>
       <c r="J24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K24" t="s">
         <v>136</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AK24">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>136</v>
       </c>
       <c r="J25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K25" t="s">
         <v>136</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AK25">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>112</v>
       </c>
       <c r="J26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K26" t="s">
         <v>136</v>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AK26">
         <v>1</v>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K27" t="s">
         <v>111</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AK27">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>109</v>
       </c>
       <c r="J28" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K28" t="s">
         <v>109</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AK28">
         <v>1</v>
@@ -4947,7 +4947,7 @@
         <v>104</v>
       </c>
       <c r="J29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K29" t="s">
         <v>109</v>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AK29">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>111</v>
       </c>
       <c r="J30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K30" t="s">
         <v>111</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="AK30">
         <v>0</v>
@@ -5221,7 +5221,7 @@
         <v>105</v>
       </c>
       <c r="J31" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K31" t="s">
         <v>111</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AK31">
         <v>1</v>
@@ -5358,7 +5358,7 @@
         <v>104</v>
       </c>
       <c r="J32" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K32" t="s">
         <v>111</v>
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="AK32">
         <v>1</v>
@@ -5495,7 +5495,7 @@
         <v>111</v>
       </c>
       <c r="J33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K33" t="s">
         <v>111</v>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="AJ33" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="AK33">
         <v>0</v>
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K34" t="s">
         <v>121</v>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="AK34">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>112</v>
       </c>
       <c r="J35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K35" t="s">
         <v>112</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AK35">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>113</v>
       </c>
       <c r="J36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K36" t="s">
         <v>112</v>
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="AJ36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AK36">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>112</v>
       </c>
       <c r="J37" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K37" t="s">
         <v>112</v>
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AK37">
         <v>0</v>
@@ -6159,7 +6159,7 @@
         <v>113</v>
       </c>
       <c r="J38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K38" t="s">
         <v>112</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AK38">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>121</v>
       </c>
       <c r="J39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K39" t="s">
         <v>112</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="AJ39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AK39">
         <v>0</v>
@@ -6433,7 +6433,7 @@
         <v>112</v>
       </c>
       <c r="J40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K40" t="s">
         <v>112</v>
@@ -6511,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AK40">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>113</v>
       </c>
       <c r="J41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K41" t="s">
         <v>112</v>
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="AJ41" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AK41">
         <v>0</v>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K42" t="s">
         <v>138</v>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AK42">
         <v>0</v>
@@ -6826,7 +6826,7 @@
         <v>119</v>
       </c>
       <c r="J43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K43" t="s">
         <v>119</v>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="AK43">
         <v>1</v>
@@ -6960,7 +6960,7 @@
         <v>105</v>
       </c>
       <c r="J44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K44" t="s">
         <v>105</v>
@@ -7038,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="AJ44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AK44">
         <v>1</v>
@@ -7106,7 +7106,7 @@
         <v>114</v>
       </c>
       <c r="J45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K45" t="s">
         <v>105</v>
@@ -7184,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AK45">
         <v>1</v>
@@ -7243,7 +7243,7 @@
         <v>105</v>
       </c>
       <c r="J46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K46" t="s">
         <v>105</v>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AK46">
         <v>0</v>
@@ -7380,7 +7380,7 @@
         <v>138</v>
       </c>
       <c r="J47" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K47" t="s">
         <v>105</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AK47">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>119</v>
       </c>
       <c r="J48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K48" t="s">
         <v>105</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AK48">
         <v>1</v>
@@ -7663,7 +7663,7 @@
         <v>105</v>
       </c>
       <c r="J49" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K49" t="s">
         <v>105</v>
@@ -7741,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AK49">
         <v>0</v>
@@ -7788,7 +7788,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K50" t="s">
         <v>109</v>
@@ -7866,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="AJ50" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK50">
         <v>0</v>
@@ -7919,7 +7919,7 @@
         <v>109</v>
       </c>
       <c r="J51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K51" t="s">
         <v>109</v>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK51">
         <v>0</v>
@@ -8056,7 +8056,7 @@
         <v>113</v>
       </c>
       <c r="J52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K52" t="s">
         <v>109</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK52">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>109</v>
       </c>
       <c r="J53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K53" t="s">
         <v>109</v>
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="AJ53" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK53">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>109</v>
       </c>
       <c r="J54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K54" t="s">
         <v>109</v>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="AJ54" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK54">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>109</v>
       </c>
       <c r="J55" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K55" t="s">
         <v>109</v>
@@ -8545,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AK55">
         <v>1</v>
@@ -8604,7 +8604,7 @@
         <v>112</v>
       </c>
       <c r="J56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K56" t="s">
         <v>109</v>
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK56">
         <v>1</v>
@@ -8729,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K57" t="s">
         <v>115</v>
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="AK57">
         <v>0</v>
@@ -8860,7 +8860,7 @@
         <v>106</v>
       </c>
       <c r="J58" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K58" t="s">
         <v>106</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="AJ58" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="AK58">
         <v>0</v>
@@ -8997,7 +8997,7 @@
         <v>106</v>
       </c>
       <c r="J59" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K59" t="s">
         <v>106</v>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="AJ59" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="AK59">
         <v>0</v>
@@ -9134,7 +9134,7 @@
         <v>104</v>
       </c>
       <c r="J60" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K60" t="s">
         <v>106</v>
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="AJ60" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="AK60">
         <v>0</v>
@@ -9271,7 +9271,7 @@
         <v>104</v>
       </c>
       <c r="J61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K61" t="s">
         <v>106</v>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="AJ61" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="AK61">
         <v>0</v>
@@ -9408,7 +9408,7 @@
         <v>106</v>
       </c>
       <c r="J62" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K62" t="s">
         <v>106</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="AJ62" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="AK62">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>104</v>
       </c>
       <c r="J63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K63" t="s">
         <v>106</v>
@@ -9623,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="AJ63" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="AK63">
         <v>0</v>
@@ -9670,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K64" t="s">
         <v>121</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AK64">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>125</v>
       </c>
       <c r="J65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K65" t="s">
         <v>121</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="AJ65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AK65">
         <v>1</v>
@@ -9938,7 +9938,7 @@
         <v>125</v>
       </c>
       <c r="J66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K66" t="s">
         <v>121</v>
@@ -10016,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AK66">
         <v>0</v>
@@ -10084,7 +10084,7 @@
         <v>117</v>
       </c>
       <c r="J67" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K67" t="s">
         <v>121</v>
@@ -10162,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="AJ67" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AK67">
         <v>0</v>
@@ -10221,7 +10221,7 @@
         <v>117</v>
       </c>
       <c r="J68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K68" t="s">
         <v>121</v>
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="AJ68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AK68">
         <v>1</v>
@@ -10358,7 +10358,7 @@
         <v>117</v>
       </c>
       <c r="J69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K69" t="s">
         <v>121</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="AJ69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AK69">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>125</v>
       </c>
       <c r="J70" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K70" t="s">
         <v>121</v>
@@ -10573,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="AJ70" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AK70">
         <v>0</v>
@@ -10620,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K71" t="s">
         <v>108</v>
@@ -10698,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="AJ71" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AK71">
         <v>0</v>
@@ -10748,7 +10748,7 @@
         <v>108</v>
       </c>
       <c r="J72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K72" t="s">
         <v>108</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="AJ72" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AK72">
         <v>0</v>
@@ -10882,7 +10882,7 @@
         <v>116</v>
       </c>
       <c r="J73" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K73" t="s">
         <v>108</v>
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="AJ73" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="AK73">
         <v>1</v>
@@ -11016,7 +11016,7 @@
         <v>116</v>
       </c>
       <c r="J74" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K74" t="s">
         <v>108</v>
@@ -11094,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="AJ74" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="AK74">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>111</v>
       </c>
       <c r="J75" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K75" t="s">
         <v>108</v>
@@ -11228,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="AJ75" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="AK75">
         <v>0</v>
@@ -11284,7 +11284,7 @@
         <v>108</v>
       </c>
       <c r="J76" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K76" t="s">
         <v>108</v>
@@ -11362,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="AJ76" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="AK76">
         <v>0</v>
@@ -11406,7 +11406,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K77" t="s">
         <v>106</v>
@@ -11484,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="AJ77" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="AK77">
         <v>0</v>
@@ -11537,7 +11537,7 @@
         <v>114</v>
       </c>
       <c r="J78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K78" t="s">
         <v>106</v>
@@ -11615,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="AJ78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AK78">
         <v>1</v>
@@ -11671,7 +11671,7 @@
         <v>106</v>
       </c>
       <c r="J79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K79" t="s">
         <v>106</v>
@@ -11749,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="AJ79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AK79">
         <v>0</v>
@@ -11805,7 +11805,7 @@
         <v>109</v>
       </c>
       <c r="J80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K80" t="s">
         <v>106</v>
@@ -11883,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="AJ80" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="AK80">
         <v>1</v>
@@ -11939,7 +11939,7 @@
         <v>109</v>
       </c>
       <c r="J81" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K81" t="s">
         <v>106</v>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="AJ81" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="AK81">
         <v>0</v>
@@ -12073,7 +12073,7 @@
         <v>114</v>
       </c>
       <c r="J82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K82" t="s">
         <v>106</v>
@@ -12151,7 +12151,7 @@
         <v>0</v>
       </c>
       <c r="AJ82" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="AK82">
         <v>0</v>
@@ -12207,7 +12207,7 @@
         <v>106</v>
       </c>
       <c r="J83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K83" t="s">
         <v>106</v>
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="AJ83" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="AK83">
         <v>0</v>
@@ -12341,7 +12341,7 @@
         <v>106</v>
       </c>
       <c r="J84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K84" t="s">
         <v>106</v>
@@ -12419,7 +12419,7 @@
         <v>0</v>
       </c>
       <c r="AJ84" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="AK84">
         <v>0</v>
@@ -12475,7 +12475,7 @@
         <v>114</v>
       </c>
       <c r="J85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K85" t="s">
         <v>106</v>
@@ -12553,7 +12553,7 @@
         <v>0</v>
       </c>
       <c r="AJ85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AK85">
         <v>1</v>
@@ -12597,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K86" t="s">
         <v>118</v>
@@ -12636,7 +12636,7 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="X86">
         <v>4</v>
@@ -12654,7 +12654,7 @@
         <v>0</v>
       </c>
       <c r="AC86" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD86">
         <v>2</v>
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="AJ86" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="AK86">
         <v>0</v>
@@ -12728,7 +12728,7 @@
         <v>118</v>
       </c>
       <c r="J87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K87" t="s">
         <v>118</v>
@@ -12749,7 +12749,7 @@
         <v>1</v>
       </c>
       <c r="Q87" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="R87">
         <v>4</v>
@@ -12785,7 +12785,7 @@
         <v>-1</v>
       </c>
       <c r="AC87" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD87">
         <v>2</v>
@@ -12806,7 +12806,7 @@
         <v>0</v>
       </c>
       <c r="AJ87" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="AK87">
         <v>1</v>
@@ -12865,7 +12865,7 @@
         <v>119</v>
       </c>
       <c r="J88" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K88" t="s">
         <v>118</v>
@@ -12904,7 +12904,7 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="X88">
         <v>4</v>
@@ -12922,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="AC88" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD88">
         <v>2</v>
@@ -12943,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="AJ88" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="AK88">
         <v>1</v>
@@ -13002,7 +13002,7 @@
         <v>118</v>
       </c>
       <c r="J89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K89" t="s">
         <v>118</v>
@@ -13023,7 +13023,7 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="R89">
         <v>4</v>
@@ -13059,7 +13059,7 @@
         <v>-1</v>
       </c>
       <c r="AC89" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD89">
         <v>2</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="AJ89" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="AK89">
         <v>1</v>
@@ -13139,7 +13139,7 @@
         <v>119</v>
       </c>
       <c r="J90" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K90" t="s">
         <v>118</v>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="X90">
         <v>4</v>
@@ -13196,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="AC90" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD90">
         <v>2</v>
@@ -13217,7 +13217,7 @@
         <v>0</v>
       </c>
       <c r="AJ90" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="AK90">
         <v>1</v>
@@ -13276,7 +13276,7 @@
         <v>118</v>
       </c>
       <c r="J91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K91" t="s">
         <v>118</v>
@@ -13297,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="Q91" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="R91">
         <v>4</v>
@@ -13333,7 +13333,7 @@
         <v>-1</v>
       </c>
       <c r="AC91" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD91">
         <v>2</v>
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="AJ91" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="AK91">
         <v>1</v>
@@ -13413,7 +13413,7 @@
         <v>119</v>
       </c>
       <c r="J92" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K92" t="s">
         <v>118</v>
@@ -13452,7 +13452,7 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="X92">
         <v>4</v>
@@ -13470,7 +13470,7 @@
         <v>0</v>
       </c>
       <c r="AC92" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD92">
         <v>2</v>
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="AJ92" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="AK92">
         <v>1</v>
@@ -13550,7 +13550,7 @@
         <v>119</v>
       </c>
       <c r="J93" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K93" t="s">
         <v>119</v>
@@ -13589,7 +13589,7 @@
         <v>-1</v>
       </c>
       <c r="W93" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="X93">
         <v>4</v>
@@ -13607,7 +13607,7 @@
         <v>0</v>
       </c>
       <c r="AC93" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AD93">
         <v>2</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="AJ93" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="AK93">
         <v>0</v>
@@ -13675,7 +13675,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K94" t="s">
         <v>105</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="AJ94" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AK94">
         <v>0</v>
@@ -13806,7 +13806,7 @@
         <v>105</v>
       </c>
       <c r="J95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K95" t="s">
         <v>105</v>
@@ -13884,7 +13884,7 @@
         <v>0</v>
       </c>
       <c r="AJ95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AK95">
         <v>0</v>
@@ -13943,7 +13943,7 @@
         <v>112</v>
       </c>
       <c r="J96" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K96" t="s">
         <v>105</v>
@@ -14021,7 +14021,7 @@
         <v>0</v>
       </c>
       <c r="AJ96" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AK96">
         <v>0</v>
@@ -14080,7 +14080,7 @@
         <v>105</v>
       </c>
       <c r="J97" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K97" t="s">
         <v>105</v>
@@ -14158,7 +14158,7 @@
         <v>0</v>
       </c>
       <c r="AJ97" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AK97">
         <v>0</v>
@@ -14217,7 +14217,7 @@
         <v>112</v>
       </c>
       <c r="J98" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K98" t="s">
         <v>105</v>
@@ -14295,7 +14295,7 @@
         <v>0</v>
       </c>
       <c r="AJ98" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AK98">
         <v>0</v>
@@ -14354,7 +14354,7 @@
         <v>112</v>
       </c>
       <c r="J99" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K99" t="s">
         <v>112</v>
@@ -14432,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="AJ99" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AK99">
         <v>0</v>
@@ -14491,7 +14491,7 @@
         <v>125</v>
       </c>
       <c r="J100" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K100" t="s">
         <v>112</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="AJ100" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AK100">
         <v>0</v>
@@ -14628,7 +14628,7 @@
         <v>125</v>
       </c>
       <c r="J101" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K101" t="s">
         <v>112</v>
@@ -14706,7 +14706,7 @@
         <v>0</v>
       </c>
       <c r="AJ101" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AK101">
         <v>0</v>
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K102" t="s">
         <v>124</v>
@@ -14831,7 +14831,7 @@
         <v>0</v>
       </c>
       <c r="AJ102" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="AK102">
         <v>0</v>
@@ -14881,7 +14881,7 @@
         <v>117</v>
       </c>
       <c r="J103" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="K103" t="s">
         <v>119</v>
@@ -14959,7 +14959,7 @@
         <v>0</v>
       </c>
       <c r="AJ103" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="AK103">
         <v>1</v>
@@ -15018,7 +15018,7 @@
         <v>117</v>
       </c>
       <c r="J104" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="K104" t="s">
         <v>119</v>
@@ -15096,7 +15096,7 @@
         <v>0</v>
       </c>
       <c r="AJ104" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="AK104">
         <v>0</v>
@@ -15155,7 +15155,7 @@
         <v>124</v>
       </c>
       <c r="J105" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="K105" t="s">
         <v>119</v>
@@ -15233,7 +15233,7 @@
         <v>0</v>
       </c>
       <c r="AJ105" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="AK105">
         <v>0</v>
@@ -15292,7 +15292,7 @@
         <v>106</v>
       </c>
       <c r="J106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K106" t="s">
         <v>106</v>
@@ -15370,7 +15370,7 @@
         <v>0</v>
       </c>
       <c r="AJ106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AK106">
         <v>1</v>
@@ -15417,7 +15417,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K107" t="s">
         <v>105</v>
@@ -15495,7 +15495,7 @@
         <v>0</v>
       </c>
       <c r="AJ107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AK107">
         <v>0</v>
@@ -15545,7 +15545,7 @@
         <v>115</v>
       </c>
       <c r="J108" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K108" t="s">
         <v>105</v>
@@ -15623,7 +15623,7 @@
         <v>0</v>
       </c>
       <c r="AJ108" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AK108">
         <v>1</v>
@@ -15679,7 +15679,7 @@
         <v>105</v>
       </c>
       <c r="J109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K109" t="s">
         <v>105</v>
@@ -15757,7 +15757,7 @@
         <v>0</v>
       </c>
       <c r="AJ109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AK109">
         <v>0</v>
@@ -15813,7 +15813,7 @@
         <v>120</v>
       </c>
       <c r="J110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K110" t="s">
         <v>105</v>
@@ -15891,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="AJ110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AK110">
         <v>0</v>
@@ -15947,7 +15947,7 @@
         <v>109</v>
       </c>
       <c r="J111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K111" t="s">
         <v>105</v>
@@ -16025,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="AJ111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AK111">
         <v>1</v>
@@ -16081,7 +16081,7 @@
         <v>109</v>
       </c>
       <c r="J112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K112" t="s">
         <v>109</v>
@@ -16159,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="AJ112" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AK112">
         <v>0</v>
@@ -16218,7 +16218,7 @@
         <v>109</v>
       </c>
       <c r="J113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K113" t="s">
         <v>109</v>
@@ -16296,7 +16296,7 @@
         <v>0</v>
       </c>
       <c r="AJ113" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AK113">
         <v>0</v>
@@ -16355,7 +16355,7 @@
         <v>115</v>
       </c>
       <c r="J114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K114" t="s">
         <v>109</v>
@@ -16433,7 +16433,7 @@
         <v>0</v>
       </c>
       <c r="AJ114" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AK114">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>105</v>
       </c>
       <c r="J115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K115" t="s">
         <v>105</v>
@@ -16570,7 +16570,7 @@
         <v>0</v>
       </c>
       <c r="AJ115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AK115">
         <v>0</v>
@@ -16626,7 +16626,7 @@
         <v>109</v>
       </c>
       <c r="J116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K116" t="s">
         <v>105</v>
@@ -16704,7 +16704,7 @@
         <v>0</v>
       </c>
       <c r="AJ116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AK116">
         <v>0</v>
@@ -16760,7 +16760,7 @@
         <v>105</v>
       </c>
       <c r="J117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K117" t="s">
         <v>105</v>
@@ -16838,7 +16838,7 @@
         <v>0</v>
       </c>
       <c r="AJ117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AK117">
         <v>0</v>
@@ -16882,7 +16882,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="K118" t="s">
         <v>111</v>
@@ -16960,7 +16960,7 @@
         <v>0</v>
       </c>
       <c r="AJ118" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="AK118">
         <v>0</v>
@@ -17013,7 +17013,7 @@
         <v>104</v>
       </c>
       <c r="J119" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="K119" t="s">
         <v>104</v>
@@ -17091,7 +17091,7 @@
         <v>0</v>
       </c>
       <c r="AJ119" t="s">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="AK119">
         <v>0</v>
@@ -17150,7 +17150,7 @@
         <v>138</v>
       </c>
       <c r="J120" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="K120" t="s">
         <v>104</v>
@@ -17228,7 +17228,7 @@
         <v>0</v>
       </c>
       <c r="AJ120" t="s">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="AK120">
         <v>0</v>
@@ -17287,7 +17287,7 @@
         <v>111</v>
       </c>
       <c r="J121" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="K121" t="s">
         <v>111</v>
@@ -17365,7 +17365,7 @@
         <v>0</v>
       </c>
       <c r="AJ121" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="AK121">
         <v>0</v>
@@ -17424,7 +17424,7 @@
         <v>108</v>
       </c>
       <c r="J122" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="K122" t="s">
         <v>111</v>
@@ -17502,7 +17502,7 @@
         <v>0</v>
       </c>
       <c r="AJ122" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="AK122">
         <v>0</v>
@@ -17561,7 +17561,7 @@
         <v>104</v>
       </c>
       <c r="J123" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="K123" t="s">
         <v>104</v>
@@ -17639,7 +17639,7 @@
         <v>0</v>
       </c>
       <c r="AJ123" t="s">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="AK123">
         <v>0</v>
@@ -17698,7 +17698,7 @@
         <v>111</v>
       </c>
       <c r="J124" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="K124" t="s">
         <v>111</v>
@@ -17776,7 +17776,7 @@
         <v>0</v>
       </c>
       <c r="AJ124" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="AK124">
         <v>0</v>
@@ -17835,7 +17835,7 @@
         <v>108</v>
       </c>
       <c r="J125" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="K125" t="s">
         <v>111</v>
@@ -17913,7 +17913,7 @@
         <v>0</v>
       </c>
       <c r="AJ125" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="AK125">
         <v>0</v>
@@ -17960,7 +17960,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K126" t="s">
         <v>125</v>
@@ -18038,7 +18038,7 @@
         <v>0</v>
       </c>
       <c r="AJ126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AK126">
         <v>0</v>
@@ -18091,7 +18091,7 @@
         <v>121</v>
       </c>
       <c r="J127" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K127" t="s">
         <v>125</v>
@@ -18169,7 +18169,7 @@
         <v>0</v>
       </c>
       <c r="AJ127" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AK127">
         <v>0</v>
@@ -18228,7 +18228,7 @@
         <v>112</v>
       </c>
       <c r="J128" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K128" t="s">
         <v>125</v>
@@ -18306,7 +18306,7 @@
         <v>0</v>
       </c>
       <c r="AJ128" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AK128">
         <v>0</v>
@@ -18443,7 +18443,7 @@
         <v>0</v>
       </c>
       <c r="AJ129" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="AK129">
         <v>1</v>
@@ -18580,7 +18580,7 @@
         <v>0</v>
       </c>
       <c r="AJ130" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="AK130">
         <v>0</v>
@@ -18717,7 +18717,7 @@
         <v>0</v>
       </c>
       <c r="AJ131" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="AK131">
         <v>0</v>
@@ -18854,7 +18854,7 @@
         <v>0</v>
       </c>
       <c r="AJ132" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="AK132">
         <v>0</v>
@@ -19920,7 +19920,7 @@
         <v>0</v>
       </c>
       <c r="AJ140" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="AK140">
         <v>1</v>
@@ -21099,7 +21099,7 @@
         <v>0</v>
       </c>
       <c r="AJ149" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="AK149">
         <v>0</v>
@@ -21227,7 +21227,7 @@
         <v>0</v>
       </c>
       <c r="AJ150" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AK150">
         <v>1</v>
@@ -21361,7 +21361,7 @@
         <v>0</v>
       </c>
       <c r="AJ151" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AK151">
         <v>0</v>
@@ -21495,7 +21495,7 @@
         <v>0</v>
       </c>
       <c r="AJ152" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AK152">
         <v>0</v>
@@ -21629,7 +21629,7 @@
         <v>0</v>
       </c>
       <c r="AJ153" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AK153">
         <v>0</v>
@@ -21763,7 +21763,7 @@
         <v>0</v>
       </c>
       <c r="AJ154" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AK154">
         <v>0</v>
@@ -22013,7 +22013,7 @@
         <v>0</v>
       </c>
       <c r="AJ156" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="AK156">
         <v>1</v>
@@ -22150,7 +22150,7 @@
         <v>0</v>
       </c>
       <c r="AJ157" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AK157">
         <v>1</v>
@@ -22272,7 +22272,7 @@
         <v>0</v>
       </c>
       <c r="AJ158" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="AK158">
         <v>0</v>
@@ -22540,7 +22540,7 @@
         <v>0</v>
       </c>
       <c r="AJ160" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="AK160">
         <v>1</v>
@@ -22823,7 +22823,7 @@
         <v>0</v>
       </c>
       <c r="AJ162" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="AK162">
         <v>1</v>
@@ -22960,7 +22960,7 @@
         <v>0</v>
       </c>
       <c r="AJ163" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="AK163">
         <v>0</v>
@@ -23106,7 +23106,7 @@
         <v>0</v>
       </c>
       <c r="AJ164" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="AK164">
         <v>0</v>
@@ -23231,7 +23231,7 @@
         <v>0</v>
       </c>
       <c r="AJ165" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="AK165">
         <v>0</v>
@@ -23362,7 +23362,7 @@
         <v>0</v>
       </c>
       <c r="AJ166" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="AK166">
         <v>0</v>
@@ -23499,7 +23499,7 @@
         <v>0</v>
       </c>
       <c r="AJ167" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="AK167">
         <v>1</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="AJ168" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="AK168">
         <v>0</v>
@@ -23683,7 +23683,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K169" t="s">
         <v>105</v>
@@ -23761,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="AJ169" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AK169">
         <v>0</v>
@@ -23811,7 +23811,7 @@
         <v>109</v>
       </c>
       <c r="J170" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K170" t="s">
         <v>109</v>
@@ -23889,7 +23889,7 @@
         <v>0</v>
       </c>
       <c r="AJ170" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AK170">
         <v>0</v>
@@ -23948,7 +23948,7 @@
         <v>111</v>
       </c>
       <c r="J171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K171" t="s">
         <v>109</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="AJ171" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AK171">
         <v>0</v>
@@ -24082,7 +24082,7 @@
         <v>111</v>
       </c>
       <c r="J172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K172" t="s">
         <v>109</v>
@@ -24160,7 +24160,7 @@
         <v>0</v>
       </c>
       <c r="AJ172" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AK172">
         <v>0</v>
@@ -24282,7 +24282,7 @@
         <v>1</v>
       </c>
       <c r="AJ173" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="AK173">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>133</v>
       </c>
       <c r="J174" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K174" t="s">
         <v>105</v>
@@ -24410,7 +24410,7 @@
         <v>1</v>
       </c>
       <c r="AJ174" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AK174">
         <v>1</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K175" t="s">
         <v>109</v>
@@ -24532,7 +24532,7 @@
         <v>1</v>
       </c>
       <c r="AJ175" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AK175">
         <v>0</v>
@@ -24594,7 +24594,7 @@
         <v>140</v>
       </c>
       <c r="J176" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K176" t="s">
         <v>140</v>
@@ -24672,7 +24672,7 @@
         <v>1</v>
       </c>
       <c r="AJ176" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AK176">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>140</v>
       </c>
       <c r="J177" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K177" t="s">
         <v>140</v>
@@ -24809,7 +24809,7 @@
         <v>1</v>
       </c>
       <c r="AJ177" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AK177">
         <v>0</v>
@@ -24868,7 +24868,7 @@
         <v>140</v>
       </c>
       <c r="J178" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K178" t="s">
         <v>140</v>
@@ -24946,7 +24946,7 @@
         <v>1</v>
       </c>
       <c r="AJ178" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AK178">
         <v>0</v>
@@ -24993,7 +24993,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K179" t="s">
         <v>121</v>
@@ -25071,7 +25071,7 @@
         <v>1</v>
       </c>
       <c r="AJ179" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AK179">
         <v>0</v>
@@ -25124,7 +25124,7 @@
         <v>121</v>
       </c>
       <c r="J180" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K180" t="s">
         <v>121</v>
@@ -25202,7 +25202,7 @@
         <v>1</v>
       </c>
       <c r="AJ180" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AK180">
         <v>0</v>
@@ -25261,7 +25261,7 @@
         <v>123</v>
       </c>
       <c r="J181" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K181" t="s">
         <v>121</v>
@@ -25339,7 +25339,7 @@
         <v>1</v>
       </c>
       <c r="AJ181" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AK181">
         <v>0</v>
@@ -25386,7 +25386,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K182" t="s">
         <v>119</v>
@@ -25464,7 +25464,7 @@
         <v>0</v>
       </c>
       <c r="AJ182" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="AK182">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>119</v>
       </c>
       <c r="J183" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K183" t="s">
         <v>119</v>
@@ -25595,7 +25595,7 @@
         <v>0</v>
       </c>
       <c r="AJ183" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="AK183">
         <v>0</v>
@@ -25663,7 +25663,7 @@
         <v>116</v>
       </c>
       <c r="J184" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K184" t="s">
         <v>119</v>
@@ -25741,7 +25741,7 @@
         <v>1</v>
       </c>
       <c r="AJ184" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AK184">
         <v>1</v>
@@ -25797,7 +25797,7 @@
         <v>115</v>
       </c>
       <c r="J185" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K185" t="s">
         <v>119</v>
@@ -25875,7 +25875,7 @@
         <v>1</v>
       </c>
       <c r="AJ185" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AK185">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>116</v>
       </c>
       <c r="J186" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K186" t="s">
         <v>119</v>
@@ -26009,7 +26009,7 @@
         <v>1</v>
       </c>
       <c r="AJ186" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AK186">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>115</v>
       </c>
       <c r="J187" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K187" t="s">
         <v>115</v>
@@ -26143,7 +26143,7 @@
         <v>1</v>
       </c>
       <c r="AJ187" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AK187">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K188" t="s">
         <v>129</v>
@@ -26265,7 +26265,7 @@
         <v>0</v>
       </c>
       <c r="AJ188" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="AK188">
         <v>0</v>
@@ -26318,7 +26318,7 @@
         <v>128</v>
       </c>
       <c r="J189" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K189" t="s">
         <v>129</v>
@@ -26396,7 +26396,7 @@
         <v>1</v>
       </c>
       <c r="AJ189" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AK189">
         <v>1</v>
@@ -26455,7 +26455,7 @@
         <v>129</v>
       </c>
       <c r="J190" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K190" t="s">
         <v>129</v>
@@ -26533,7 +26533,7 @@
         <v>0</v>
       </c>
       <c r="AJ190" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="AK190">
         <v>1</v>
@@ -26592,7 +26592,7 @@
         <v>106</v>
       </c>
       <c r="J191" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K191" t="s">
         <v>129</v>
@@ -26670,7 +26670,7 @@
         <v>1</v>
       </c>
       <c r="AJ191" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AK191">
         <v>1</v>
@@ -26729,7 +26729,7 @@
         <v>129</v>
       </c>
       <c r="J192" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K192" t="s">
         <v>129</v>
@@ -26807,7 +26807,7 @@
         <v>0</v>
       </c>
       <c r="AJ192" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="AK192">
         <v>1</v>
@@ -26866,7 +26866,7 @@
         <v>106</v>
       </c>
       <c r="J193" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K193" t="s">
         <v>129</v>
@@ -26944,7 +26944,7 @@
         <v>1</v>
       </c>
       <c r="AJ193" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AK193">
         <v>1</v>
@@ -27003,7 +27003,7 @@
         <v>129</v>
       </c>
       <c r="J194" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K194" t="s">
         <v>129</v>
@@ -27081,7 +27081,7 @@
         <v>0</v>
       </c>
       <c r="AJ194" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="AK194">
         <v>1</v>
@@ -27140,7 +27140,7 @@
         <v>122</v>
       </c>
       <c r="J195" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K195" t="s">
         <v>129</v>
@@ -27218,7 +27218,7 @@
         <v>0</v>
       </c>
       <c r="AJ195" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="AK195">
         <v>0</v>
@@ -27277,7 +27277,7 @@
         <v>106</v>
       </c>
       <c r="J196" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K196" t="s">
         <v>129</v>
@@ -27355,7 +27355,7 @@
         <v>1</v>
       </c>
       <c r="AJ196" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AK196">
         <v>1</v>
@@ -27411,7 +27411,7 @@
         <v>128</v>
       </c>
       <c r="J197" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K197" t="s">
         <v>129</v>
@@ -27489,7 +27489,7 @@
         <v>1</v>
       </c>
       <c r="AJ197" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AK197">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="K198" t="s">
         <v>108</v>
@@ -27614,7 +27614,7 @@
         <v>0</v>
       </c>
       <c r="AJ198" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AK198">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>135</v>
       </c>
       <c r="J199" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="K199" t="s">
         <v>108</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="AJ199" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AK199">
         <v>0</v>
@@ -27801,7 +27801,7 @@
         <v>110</v>
       </c>
       <c r="J200" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="K200" t="s">
         <v>135</v>
@@ -27879,7 +27879,7 @@
         <v>1</v>
       </c>
       <c r="AJ200" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AK200">
         <v>1</v>
@@ -27926,7 +27926,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K201" t="s">
         <v>108</v>
@@ -28004,7 +28004,7 @@
         <v>0</v>
       </c>
       <c r="AJ201" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AK201">
         <v>0</v>
@@ -28057,7 +28057,7 @@
         <v>120</v>
       </c>
       <c r="J202" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K202" t="s">
         <v>108</v>
@@ -28135,7 +28135,7 @@
         <v>1</v>
       </c>
       <c r="AJ202" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AK202">
         <v>1</v>
@@ -28191,7 +28191,7 @@
         <v>120</v>
       </c>
       <c r="J203" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K203" t="s">
         <v>108</v>
@@ -28269,7 +28269,7 @@
         <v>1</v>
       </c>
       <c r="AJ203" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AK203">
         <v>0</v>
@@ -28325,7 +28325,7 @@
         <v>108</v>
       </c>
       <c r="J204" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K204" t="s">
         <v>108</v>
@@ -28403,7 +28403,7 @@
         <v>1</v>
       </c>
       <c r="AJ204" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AK204">
         <v>0</v>
@@ -28459,7 +28459,7 @@
         <v>116</v>
       </c>
       <c r="J205" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K205" t="s">
         <v>108</v>
@@ -28537,7 +28537,7 @@
         <v>1</v>
       </c>
       <c r="AJ205" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AK205">
         <v>0</v>
@@ -28593,7 +28593,7 @@
         <v>120</v>
       </c>
       <c r="J206" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K206" t="s">
         <v>108</v>
@@ -28671,7 +28671,7 @@
         <v>1</v>
       </c>
       <c r="AJ206" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AK206">
         <v>0</v>
@@ -28715,7 +28715,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K207" t="s">
         <v>112</v>
@@ -28793,7 +28793,7 @@
         <v>1</v>
       </c>
       <c r="AJ207" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AK207">
         <v>0</v>
@@ -28846,7 +28846,7 @@
         <v>122</v>
       </c>
       <c r="J208" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K208" t="s">
         <v>112</v>
@@ -28924,7 +28924,7 @@
         <v>1</v>
       </c>
       <c r="AJ208" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AK208">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>112</v>
       </c>
       <c r="J209" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K209" t="s">
         <v>112</v>
@@ -29061,7 +29061,7 @@
         <v>1</v>
       </c>
       <c r="AJ209" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AK209">
         <v>0</v>
@@ -29120,7 +29120,7 @@
         <v>112</v>
       </c>
       <c r="J210" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K210" t="s">
         <v>112</v>
@@ -29198,7 +29198,7 @@
         <v>1</v>
       </c>
       <c r="AJ210" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AK210">
         <v>0</v>
@@ -29257,7 +29257,7 @@
         <v>112</v>
       </c>
       <c r="J211" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K211" t="s">
         <v>112</v>
@@ -29335,7 +29335,7 @@
         <v>1</v>
       </c>
       <c r="AJ211" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AK211">
         <v>0</v>
@@ -29382,7 +29382,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K212" t="s">
         <v>135</v>
@@ -29460,7 +29460,7 @@
         <v>1</v>
       </c>
       <c r="AJ212" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="AK212">
         <v>0</v>
@@ -29510,7 +29510,7 @@
         <v>104</v>
       </c>
       <c r="J213" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K213" t="s">
         <v>135</v>
@@ -29588,7 +29588,7 @@
         <v>1</v>
       </c>
       <c r="AJ213" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="AK213">
         <v>1</v>
@@ -29644,7 +29644,7 @@
         <v>104</v>
       </c>
       <c r="J214" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K214" t="s">
         <v>135</v>
@@ -29722,7 +29722,7 @@
         <v>1</v>
       </c>
       <c r="AJ214" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="AK214">
         <v>0</v>
@@ -29778,7 +29778,7 @@
         <v>117</v>
       </c>
       <c r="J215" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K215" t="s">
         <v>135</v>
@@ -29856,7 +29856,7 @@
         <v>1</v>
       </c>
       <c r="AJ215" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="AK215">
         <v>0</v>
@@ -29912,7 +29912,7 @@
         <v>135</v>
       </c>
       <c r="J216" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K216" t="s">
         <v>135</v>
@@ -29990,7 +29990,7 @@
         <v>1</v>
       </c>
       <c r="AJ216" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AK216">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>104</v>
       </c>
       <c r="J217" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K217" t="s">
         <v>135</v>
@@ -30127,7 +30127,7 @@
         <v>1</v>
       </c>
       <c r="AJ217" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AK217">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>135</v>
       </c>
       <c r="J218" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K218" t="s">
         <v>135</v>
@@ -30264,7 +30264,7 @@
         <v>1</v>
       </c>
       <c r="AJ218" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AK218">
         <v>0</v>
@@ -30323,7 +30323,7 @@
         <v>104</v>
       </c>
       <c r="J219" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K219" t="s">
         <v>135</v>
@@ -30401,7 +30401,7 @@
         <v>1</v>
       </c>
       <c r="AJ219" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AK219">
         <v>0</v>
@@ -30448,7 +30448,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K220" t="s">
         <v>125</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="AJ220" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AK220">
         <v>0</v>
@@ -30579,7 +30579,7 @@
         <v>109</v>
       </c>
       <c r="J221" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K221" t="s">
         <v>109</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="AJ221" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="AK221">
         <v>0</v>
@@ -30716,7 +30716,7 @@
         <v>115</v>
       </c>
       <c r="J222" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K222" t="s">
         <v>109</v>
@@ -30794,7 +30794,7 @@
         <v>1</v>
       </c>
       <c r="AJ222" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AK222">
         <v>1</v>
@@ -30850,7 +30850,7 @@
         <v>113</v>
       </c>
       <c r="J223" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K223" t="s">
         <v>109</v>
@@ -30928,7 +30928,7 @@
         <v>0</v>
       </c>
       <c r="AJ223" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="AK223">
         <v>1</v>
@@ -30987,7 +30987,7 @@
         <v>115</v>
       </c>
       <c r="J224" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K224" t="s">
         <v>109</v>
@@ -31065,7 +31065,7 @@
         <v>1</v>
       </c>
       <c r="AJ224" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AK224">
         <v>1</v>
@@ -31121,7 +31121,7 @@
         <v>115</v>
       </c>
       <c r="J225" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K225" t="s">
         <v>109</v>
@@ -31199,7 +31199,7 @@
         <v>1</v>
       </c>
       <c r="AJ225" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AK225">
         <v>0</v>
@@ -31246,7 +31246,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K226" t="s">
         <v>111</v>
@@ -31324,7 +31324,7 @@
         <v>1</v>
       </c>
       <c r="AJ226" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AK226">
         <v>0</v>
@@ -31377,7 +31377,7 @@
         <v>111</v>
       </c>
       <c r="J227" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K227" t="s">
         <v>111</v>
@@ -31455,7 +31455,7 @@
         <v>1</v>
       </c>
       <c r="AJ227" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AK227">
         <v>0</v>
@@ -31514,7 +31514,7 @@
         <v>119</v>
       </c>
       <c r="J228" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="K228" t="s">
         <v>111</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="AJ228" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="AK228">
         <v>1</v>
@@ -31648,7 +31648,7 @@
         <v>119</v>
       </c>
       <c r="J229" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="K229" t="s">
         <v>111</v>
@@ -31726,7 +31726,7 @@
         <v>0</v>
       </c>
       <c r="AJ229" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="AK229">
         <v>0</v>
@@ -31782,7 +31782,7 @@
         <v>119</v>
       </c>
       <c r="J230" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="K230" t="s">
         <v>111</v>
@@ -31860,7 +31860,7 @@
         <v>0</v>
       </c>
       <c r="AJ230" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="AK230">
         <v>0</v>
@@ -31916,7 +31916,7 @@
         <v>111</v>
       </c>
       <c r="J231" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="K231" t="s">
         <v>111</v>
@@ -31994,7 +31994,7 @@
         <v>0</v>
       </c>
       <c r="AJ231" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="AK231">
         <v>0</v>
@@ -32050,7 +32050,7 @@
         <v>123</v>
       </c>
       <c r="J232" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="K232" t="s">
         <v>111</v>
@@ -32128,7 +32128,7 @@
         <v>0</v>
       </c>
       <c r="AJ232" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="AK232">
         <v>0</v>
@@ -32184,7 +32184,7 @@
         <v>119</v>
       </c>
       <c r="J233" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="K233" t="s">
         <v>111</v>
@@ -32262,7 +32262,7 @@
         <v>0</v>
       </c>
       <c r="AJ233" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="AK233">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>119</v>
       </c>
       <c r="J234" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="K234" t="s">
         <v>111</v>
@@ -32396,7 +32396,7 @@
         <v>0</v>
       </c>
       <c r="AJ234" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="AK234">
         <v>0</v>
@@ -32452,7 +32452,7 @@
         <v>123</v>
       </c>
       <c r="J235" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="K235" t="s">
         <v>119</v>
@@ -32530,7 +32530,7 @@
         <v>0</v>
       </c>
       <c r="AJ235" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="AK235">
         <v>0</v>
@@ -32589,7 +32589,7 @@
         <v>111</v>
       </c>
       <c r="J236" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="K236" t="s">
         <v>111</v>
@@ -32667,7 +32667,7 @@
         <v>0</v>
       </c>
       <c r="AJ236" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="AK236">
         <v>0</v>
@@ -32711,7 +32711,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K237" t="s">
         <v>105</v>
@@ -32789,7 +32789,7 @@
         <v>1</v>
       </c>
       <c r="AJ237" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="AK237">
         <v>0</v>
@@ -32839,7 +32839,7 @@
         <v>129</v>
       </c>
       <c r="J238" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K238" t="s">
         <v>105</v>
@@ -32917,7 +32917,7 @@
         <v>1</v>
       </c>
       <c r="AJ238" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="AK238">
         <v>1</v>
@@ -32973,7 +32973,7 @@
         <v>106</v>
       </c>
       <c r="J239" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K239" t="s">
         <v>106</v>
@@ -33051,7 +33051,7 @@
         <v>1</v>
       </c>
       <c r="AJ239" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AK239">
         <v>0</v>
@@ -33107,7 +33107,7 @@
         <v>105</v>
       </c>
       <c r="J240" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K240" t="s">
         <v>105</v>
@@ -33185,7 +33185,7 @@
         <v>1</v>
       </c>
       <c r="AJ240" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="AK240">
         <v>0</v>
@@ -33241,7 +33241,7 @@
         <v>105</v>
       </c>
       <c r="J241" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K241" t="s">
         <v>105</v>
@@ -33319,7 +33319,7 @@
         <v>0</v>
       </c>
       <c r="AJ241" t="s">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="AK241">
         <v>1</v>
@@ -33378,7 +33378,7 @@
         <v>106</v>
       </c>
       <c r="J242" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K242" t="s">
         <v>105</v>
@@ -33456,7 +33456,7 @@
         <v>1</v>
       </c>
       <c r="AJ242" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="AK242">
         <v>1</v>
@@ -33512,7 +33512,7 @@
         <v>121</v>
       </c>
       <c r="J243" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K243" t="s">
         <v>105</v>
@@ -33590,7 +33590,7 @@
         <v>1</v>
       </c>
       <c r="AJ243" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="AK243">
         <v>1</v>
@@ -33646,7 +33646,7 @@
         <v>129</v>
       </c>
       <c r="J244" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K244" t="s">
         <v>105</v>
@@ -33724,7 +33724,7 @@
         <v>1</v>
       </c>
       <c r="AJ244" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="AK244">
         <v>1</v>
@@ -33780,7 +33780,7 @@
         <v>121</v>
       </c>
       <c r="J245" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K245" t="s">
         <v>105</v>
@@ -33858,7 +33858,7 @@
         <v>1</v>
       </c>
       <c r="AJ245" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="AK245">
         <v>1</v>
@@ -33902,7 +33902,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K246" t="s">
         <v>121</v>
@@ -33980,7 +33980,7 @@
         <v>1</v>
       </c>
       <c r="AJ246" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="AK246">
         <v>0</v>
@@ -34030,7 +34030,7 @@
         <v>120</v>
       </c>
       <c r="J247" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K247" t="s">
         <v>120</v>
@@ -34108,7 +34108,7 @@
         <v>1</v>
       </c>
       <c r="AJ247" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AK247">
         <v>0</v>
@@ -34164,7 +34164,7 @@
         <v>121</v>
       </c>
       <c r="J248" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K248" t="s">
         <v>121</v>
@@ -34242,7 +34242,7 @@
         <v>1</v>
       </c>
       <c r="AJ248" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="AK248">
         <v>0</v>
@@ -34298,7 +34298,7 @@
         <v>129</v>
       </c>
       <c r="J249" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K249" t="s">
         <v>121</v>
@@ -34376,7 +34376,7 @@
         <v>1</v>
       </c>
       <c r="AJ249" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AK249">
         <v>1</v>
@@ -34420,7 +34420,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="K250" t="s">
         <v>119</v>
@@ -34498,7 +34498,7 @@
         <v>0</v>
       </c>
       <c r="AJ250" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="AK250">
         <v>0</v>
@@ -34551,7 +34551,7 @@
         <v>119</v>
       </c>
       <c r="J251" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="K251" t="s">
         <v>119</v>
@@ -34629,7 +34629,7 @@
         <v>0</v>
       </c>
       <c r="AJ251" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="AK251">
         <v>0</v>
@@ -34685,7 +34685,7 @@
         <v>115</v>
       </c>
       <c r="J252" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="K252" t="s">
         <v>119</v>
@@ -34763,7 +34763,7 @@
         <v>1</v>
       </c>
       <c r="AJ252" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AK252">
         <v>1</v>
@@ -34822,7 +34822,7 @@
         <v>108</v>
       </c>
       <c r="J253" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="K253" t="s">
         <v>119</v>
@@ -34900,7 +34900,7 @@
         <v>0</v>
       </c>
       <c r="AJ253" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="AK253">
         <v>1</v>
@@ -34944,7 +34944,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="K254" t="s">
         <v>112</v>
@@ -35022,7 +35022,7 @@
         <v>1</v>
       </c>
       <c r="AJ254" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AK254">
         <v>0</v>
@@ -35075,7 +35075,7 @@
         <v>122</v>
       </c>
       <c r="J255" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K255" t="s">
         <v>122</v>
@@ -35153,7 +35153,7 @@
         <v>1</v>
       </c>
       <c r="AJ255" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AK255">
         <v>0</v>
@@ -35212,7 +35212,7 @@
         <v>112</v>
       </c>
       <c r="J256" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="K256" t="s">
         <v>112</v>
@@ -35290,7 +35290,7 @@
         <v>1</v>
       </c>
       <c r="AJ256" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AK256">
         <v>0</v>
@@ -35349,7 +35349,7 @@
         <v>105</v>
       </c>
       <c r="J257" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="K257" t="s">
         <v>105</v>
@@ -35427,7 +35427,7 @@
         <v>1</v>
       </c>
       <c r="AJ257" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AK257">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>122</v>
       </c>
       <c r="J258" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K258" t="s">
         <v>105</v>
@@ -35564,7 +35564,7 @@
         <v>1</v>
       </c>
       <c r="AJ258" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="AK258">
         <v>0</v>
@@ -35623,7 +35623,7 @@
         <v>112</v>
       </c>
       <c r="J259" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="K259" t="s">
         <v>105</v>
@@ -35701,7 +35701,7 @@
         <v>1</v>
       </c>
       <c r="AJ259" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AK259">
         <v>0</v>
@@ -35760,7 +35760,7 @@
         <v>123</v>
       </c>
       <c r="J260" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="K260" t="s">
         <v>112</v>
@@ -35838,7 +35838,7 @@
         <v>1</v>
       </c>
       <c r="AJ260" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AK260">
         <v>0</v>
@@ -35897,7 +35897,7 @@
         <v>122</v>
       </c>
       <c r="J261" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K261" t="s">
         <v>122</v>
@@ -35975,7 +35975,7 @@
         <v>1</v>
       </c>
       <c r="AJ261" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AK261">
         <v>0</v>
@@ -36022,7 +36022,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K262" t="s">
         <v>109</v>
@@ -36061,7 +36061,7 @@
         <v>0</v>
       </c>
       <c r="W262" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="X262">
         <v>3</v>
@@ -36079,7 +36079,7 @@
         <v>0</v>
       </c>
       <c r="AC262" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AD262">
         <v>2</v>
@@ -36100,7 +36100,7 @@
         <v>1</v>
       </c>
       <c r="AJ262" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AK262">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K263" t="s">
         <v>114</v>
@@ -36219,7 +36219,7 @@
         <v>1</v>
       </c>
       <c r="AJ263" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AK263">
         <v>0</v>
@@ -36272,7 +36272,7 @@
         <v>132</v>
       </c>
       <c r="J264" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K264" t="s">
         <v>132</v>
@@ -36350,7 +36350,7 @@
         <v>1</v>
       </c>
       <c r="AJ264" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK264">
         <v>1</v>
@@ -36409,7 +36409,7 @@
         <v>114</v>
       </c>
       <c r="J265" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K265" t="s">
         <v>114</v>
@@ -36487,7 +36487,7 @@
         <v>1</v>
       </c>
       <c r="AJ265" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AK265">
         <v>1</v>
@@ -36534,7 +36534,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="K266" t="s">
         <v>106</v>
@@ -36612,7 +36612,7 @@
         <v>0</v>
       </c>
       <c r="AJ266" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="AK266">
         <v>0</v>
@@ -36662,7 +36662,7 @@
         <v>134</v>
       </c>
       <c r="J267" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="K267" t="s">
         <v>106</v>
@@ -36740,7 +36740,7 @@
         <v>1</v>
       </c>
       <c r="AJ267" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK267">
         <v>1</v>
@@ -36799,7 +36799,7 @@
         <v>116</v>
       </c>
       <c r="J268" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="K268" t="s">
         <v>106</v>
@@ -36877,7 +36877,7 @@
         <v>1</v>
       </c>
       <c r="AJ268" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK268">
         <v>0</v>
@@ -36936,7 +36936,7 @@
         <v>134</v>
       </c>
       <c r="J269" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="K269" t="s">
         <v>106</v>
@@ -37014,7 +37014,7 @@
         <v>1</v>
       </c>
       <c r="AJ269" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK269">
         <v>0</v>
@@ -37073,7 +37073,7 @@
         <v>125</v>
       </c>
       <c r="J270" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="K270" t="s">
         <v>106</v>
@@ -37151,7 +37151,7 @@
         <v>1</v>
       </c>
       <c r="AJ270" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="AK270">
         <v>0</v>
@@ -37207,7 +37207,7 @@
         <v>116</v>
       </c>
       <c r="J271" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="K271" t="s">
         <v>106</v>
@@ -37285,7 +37285,7 @@
         <v>1</v>
       </c>
       <c r="AJ271" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK271">
         <v>0</v>
